--- a/Programas e insumos/TQQQ/Parametros fractales.xlsx
+++ b/Programas e insumos/TQQQ/Parametros fractales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F4A6C-8B7B-41B7-9961-A771CE2CCE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CC8C19-3BE8-4AC8-8AEF-2D997E79394F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8724" xr2:uid="{7CF3DCDF-7C8E-4A43-8556-C04217A46A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{7CF3DCDF-7C8E-4A43-8556-C04217A46A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros fractales" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
   <si>
     <t>Estrategia</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>FIRX</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>FDX</t>
   </si>
 </sst>
 </file>
@@ -895,31 +901,31 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
